--- a/DX_Equipment_Data_Collection_D.xlsx
+++ b/DX_Equipment_Data_Collection_D.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="164" documentId="11_F25DC773A252ABDACC1048C1B999608E5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83BF4FB6-6754-4029-84D5-E2E957701EC1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2960" yWindow="2960" windowWidth="13190" windowHeight="7360" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="6" r:id="rId1"/>
@@ -57943,7 +57943,7 @@
   <dimension ref="B2:L295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
